--- a/Orbis orbatus; Vos pastores adulteri; Fur non venit.xlsx
+++ b/Orbis orbatus; Vos pastores adulteri; Fur non venit.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>die</t>
+          <t>dies</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -512,17 +512,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>similis</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>non</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -532,73 +532,93 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>canis</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>de</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4285714285714285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total Average</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total Sum</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Sentiment Difference</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Sentiment Average Difference</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.6</v>
+      <c r="B17" t="n">
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
